--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\capstone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390A9B29-55DA-4578-B18B-D68267490B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697CDBE-1397-4D01-88EF-3CBC6E598906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="582" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="User stories" sheetId="2" r:id="rId2"/>
+    <sheet name="User stories (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>User Story</t>
   </si>
@@ -110,71 +112,93 @@
     <t>As a customer, I want to be able to provide feedback and rating for the restaurants and the quality of my orders.</t>
   </si>
   <si>
-    <t xml:space="preserve">  User can enter a location or enable location services to find nearby restaurants. User can see a list of restaurants with relevant details (name, ratings, distance). User can click on a restaurant to view its menu and additional information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can select items from the restaurant's menu and add them to the cart. User can customize their order (optional extras, special requests, etc.). User can proceed to checkout and confirm the order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can view a list of their active orders with status updates. User can see the real time location of the delivery on a map. User receives notifications for important order updates (order accepted, out for delivery, delivered).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can access a feedback form after order delivery. User can rate the overall experience (1 5 stars) and provide optional comments. User receives a confirmation message after submitting feedback.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can provide required information for registration (name, email, password). User receives a confirmation email upon successful registration. User can log in using the registered credentials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can enter the login credentials (email and password). User is redirected to their account dashboard upon successful login. User can view their order history and saved preferences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delivery boy can provide required information for registration (name, contact details, vehicle information). Delivery boy receives a verification email or SMS to confirm registration. Delivery boy can log in to their account after successful registration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delivery boy can enter login credentials (email/username and password). Delivery boy is redirected to a dashboard with available orders upon successful login. Delivery boy can see order details and choose to accept or reject an order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Restaurant can provide required information for registration (name, contact details, menu, etc.). Restaurant receives a verification email or SMS to confirm registration. Restaurant can log in to their account after successful registration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Restaurant can enter login credentials (email/username and password). Restaurant is redirected to a dashboard with incoming orders upon successful login. Restaurant can view order details, including items, customer information, and special requests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delivery boy can access a list of assigned orders with necessary details (restaurant name, customer address, order items). Delivery boy can view the pickup location and customer's delivery address on a map. Delivery boy can see additional instructions or special requests from the customer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delivery boy can change the status of an assigned order (picked up, en route, delivered). Delivery boy can input estimated delivery time or provide real time updates. Customers receive notifications when there are status changes or delays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Restaurant can view the delivery boy's details and photo on the order details page. Restaurant can compare the delivery boy's information with their own records or contact Scrum Food support for verification if necessary. Restaurant can confirm the delivery boy's identity upon pickup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  User can view the order details and check if it's eligible for cancellation. User can cancel the order with a confirmation prompt. User receives a notification and refund confirmation upon successful cancellation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delivery boy confirms the total amount due from the customer upon delivery. Delivery boy collects cash payment, provides change if necessary, and issues a receipt. Delivery boy marks the order as paid and updates the payment status in the system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Restaurant receives a notification when an order is successfully paid by the customer. Restaurant can view the payment details and transaction history. Restaurant can request payouts or link their bank account for automatic transfers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Regional admin can enter login credentials (email/username and password). Regional admin is redirected to a dashboard with order and delivery overviews upon successful login. Regional admin can filter and search orders, view statistics, and manage regional resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Regional admin can access a feedback dashboard with customer ratings and comments. Regional admin can sort and filter feedback based on restaurants, delivery boys, or specific issues. Regional admin can take necessary actions based on the feedback received (escalations, training, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Regional admin can view and edit delivery boy and restaurant details (contact information, vehicle information, etc.). Regional admin can add or remove delivery boys and restaurants from the system. Regional admin can assign or reassign delivery boys to specific areas or zones.</t>
-  </si>
-  <si>
     <t>Sr no</t>
+  </si>
+  <si>
+    <t>User can enter a location or enable location services to find nearby restaurants. User can see a list of restaurants with relevant details (name, ratings, distance). User can click on a restaurant to view its menu and additional information.</t>
+  </si>
+  <si>
+    <t>User can select items from the restaurant's menu and add them to the cart. User can customize their order (optional extras, special requests, etc.). User can proceed to checkout and confirm the order.</t>
+  </si>
+  <si>
+    <t>User can view a list of their active orders with status updates. User can see the real time location of the delivery on a map. User receives notifications for important order updates (order accepted, out for delivery, delivered).</t>
+  </si>
+  <si>
+    <t>User can access a feedback form after order delivery. User can rate the overall experience (1 5 stars) and provide optional comments. User receives a confirmation message after submitting feedback.</t>
+  </si>
+  <si>
+    <t>User can provide required information for registration (name, email, password). User receives a confirmation email upon successful registration. User can log in using the registered credentials.</t>
+  </si>
+  <si>
+    <t>User can enter the login credentials (email and password). User is redirected to their account dashboard upon successful login. User can view their order history and saved preferences.</t>
+  </si>
+  <si>
+    <t>Delivery boy can provide required information for registration (name, contact details, vehicle information). Delivery boy receives a verification email or SMS to confirm registration. Delivery boy can log in to their account after successful registration.</t>
+  </si>
+  <si>
+    <t>Delivery boy can enter login credentials (email/username and password). Delivery boy is redirected to a dashboard with available orders upon successful login. Delivery boy can see order details and choose to accept or reject an order.</t>
+  </si>
+  <si>
+    <t>Restaurant can provide required information for registration (name, contact details, menu, etc.). Restaurant receives a verification email or SMS to confirm registration. Restaurant can log in to their account after successful registration.</t>
+  </si>
+  <si>
+    <t>Restaurant can enter login credentials (email/username and password). Restaurant is redirected to a dashboard with incoming orders upon successful login. Restaurant can view order details, including items, customer information, and special requests.</t>
+  </si>
+  <si>
+    <t>Delivery boy can access a list of assigned orders with necessary details (restaurant name, customer address, order items). Delivery boy can view the pickup location and customer's delivery address on a map. Delivery boy can see additional instructions or special requests from the customer.</t>
+  </si>
+  <si>
+    <t>Delivery boy can change the status of an assigned order (picked up, en route, delivered). Delivery boy can input estimated delivery time or provide real time updates. Customers receive notifications when there are status changes or delays.</t>
+  </si>
+  <si>
+    <t>Restaurant can view the delivery boy's details and photo on the order details page. Restaurant can compare the delivery boy's information with their own records or contact Scrum Food support for verification if necessary. Restaurant can confirm the delivery boy's identity upon pickup.</t>
+  </si>
+  <si>
+    <t>User can view the order details and check if it's eligible for cancellation. User can cancel the order with a confirmation prompt. User receives a notification and refund confirmation upon successful cancellation.</t>
+  </si>
+  <si>
+    <t>Delivery boy confirms the total amount due from the customer upon delivery. Delivery boy collects cash payment, provides change if necessary, and issues a receipt. Delivery boy marks the order as paid and updates the payment status in the system.</t>
+  </si>
+  <si>
+    <t>Restaurant receives a notification when an order is successfully paid by the customer. Restaurant can view the payment details and transaction history. Restaurant can request payouts or link their bank account for automatic transfers.</t>
+  </si>
+  <si>
+    <t>Regional admin can enter login credentials (email/username and password). Regional admin is redirected to a dashboard with order and delivery overviews upon successful login. Regional admin can filter and search orders, view statistics, and manage regional resources.</t>
+  </si>
+  <si>
+    <t>Regional admin can access a feedback dashboard with customer ratings and comments. Regional admin can sort and filter feedback based on restaurants, delivery boys, or specific issues. Regional admin can take necessary actions based on the feedback received (escalations, training, etc.).</t>
+  </si>
+  <si>
+    <t>Regional admin can view and edit delivery boy and restaurant details (contact information, vehicle information, etc.). Regional admin can add or remove delivery boys and restaurants from the system. Regional admin can assign or reassign delivery boys to specific areas or zones.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Created By:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="&quot;User Story No:&quot;\ ##"/>
+    <numFmt numFmtId="165" formatCode="&quot;Tasks: &quot;\ ##"/>
+    <numFmt numFmtId="166" formatCode="&quot;BV : &quot;\ ##"/>
+    <numFmt numFmtId="167" formatCode="&quot;CP: &quot;\ ##"/>
+    <numFmt numFmtId="169" formatCode="&quot;Date: &quot;\ dd/mmm/yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +224,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,18 +264,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="A1:E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +600,9 @@
     <col min="5" max="5" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -553,8 +616,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -567,11 +633,14 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>+A2+1</f>
         <v>2</v>
@@ -585,11 +654,14 @@
       <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">+A3+1</f>
         <v>3</v>
@@ -603,11 +675,14 @@
       <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -621,11 +696,14 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -639,11 +717,14 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -658,10 +739,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -676,10 +760,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -694,10 +781,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -712,10 +802,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -730,10 +823,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -748,10 +844,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -766,10 +865,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -784,10 +886,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -802,10 +907,13 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -820,10 +928,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -838,10 +949,13 @@
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -856,10 +970,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -874,10 +991,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -892,10 +1012,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -910,10 +1033,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -928,10 +1054,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -946,10 +1075,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -964,10 +1096,13 @@
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -982,10 +1117,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1000,11 +1138,190 @@
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD528742-9641-4D24-969A-89C8889D7076}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,1,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,6,FALSE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,2,FALSE)</f>
+        <v>As a customer, I want to easily log in to my Scrum Food account to access my order history and preferences.</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="B3" s="13">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,5,FALSE)</f>
+        <v>User can enter the login credentials (email and password). User is redirected to their account dashboard upon successful login. User can view their order history and saved preferences.</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8">
+        <f ca="1">+TODAY() - RANDBETWEEN(1,20)</f>
+        <v>45057</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D87D9B7-70D8-435B-8EC0-612F8CD6C099}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7DD699-FCFE-4252-BDBF-76AC51ED572D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,1,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,6,FALSE)</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,2,FALSE)</f>
+        <v>As a customer, I want to easily log in to my Scrum Food account to access my order history and preferences.</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="B3" s="13">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f>+VLOOKUP($A$1,Sheet1!A:F,5,FALSE)</f>
+        <v>User can enter the login credentials (email and password). User is redirected to their account dashboard upon successful login. User can view their order history and saved preferences.</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8">
+        <f ca="1">+TODAY() - RANDBETWEEN(1,20)</f>
+        <v>45052</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDB0D631-742B-407C-8087-32D4D4D0CC2D}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>